--- a/dataset/raw_bmkg/2010/Juli-2010.xlsx
+++ b/dataset/raw_bmkg/2010/Juli-2010.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifi\OneDrive\Documents\skripsi\code\dataset\raw_bmkg\2010\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E94D0-2924-4A00-8D67-A191DE494702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Harian - Table" sheetId="1" r:id="rId4"/>
+    <sheet name="Data Harian - Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
   <si>
     <t>ID WMO</t>
   </si>
@@ -231,19 +237,227 @@
   </si>
   <si>
     <t>ddd_car: Arah angin terbanyak (°)</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>6.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -254,14 +468,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -275,27 +492,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +535,13 @@
     <xdr:ext cx="857250" cy="857250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -323,7 +553,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -620,33 +853,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13" customWidth="true" style="0"/>
+    <col min="1" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -670,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -678,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -686,7 +905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -721,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -741,7 +960,7 @@
         <v>25.1</v>
       </c>
       <c r="G10" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -756,7 +975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -791,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -826,7 +1045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -861,7 +1080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -896,7 +1115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -931,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -939,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D16" s="2">
         <v>28.1</v>
@@ -966,7 +1185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1021,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -1036,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1071,7 +1290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1298,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D20" s="2">
         <v>28.4</v>
@@ -1106,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1114,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D21" s="2">
         <v>26.8</v>
@@ -1141,7 +1360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1161,7 +1380,7 @@
         <v>8.6</v>
       </c>
       <c r="G22" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H22" s="2">
         <v>5</v>
@@ -1176,7 +1395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1246,7 +1465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1266,7 +1485,7 @@
         <v>11.6</v>
       </c>
       <c r="G25" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H25" s="2">
         <v>8</v>
@@ -1281,7 +1500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1316,7 +1535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1351,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1403,7 +1622,7 @@
         <v>93</v>
       </c>
       <c r="F29" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G29" s="2">
         <v>2.1</v>
@@ -1421,7 +1640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1456,7 +1675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1692,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="2">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1491,7 +1710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1561,7 +1780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1569,7 +1788,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D34" s="2">
         <v>28.1</v>
@@ -1596,7 +1815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1666,7 +1885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -1701,7 +1920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1709,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D38" s="2">
         <v>27.7</v>
@@ -1721,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H38" s="2">
         <v>5</v>
@@ -1736,7 +1955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -1806,84 +2025,1209 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5DB617-A0CD-460E-A4AE-3DFF7B274131}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>270</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>270</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>270</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>180</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>135</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>135</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="2">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>270</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>360</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>180</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2">
+        <v>87</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>135</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>180</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>180</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>180</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2">
+        <v>92</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>225</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>180</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2">
+        <v>96</v>
+      </c>
+      <c r="F19" s="2">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>180</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>225</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>135</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2">
+        <v>92</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>270</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>180</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2">
+        <v>86</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2">
+        <v>180</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="2">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>225</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>180</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="2">
+        <v>94</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>225</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2">
+        <v>84</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="2">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2">
+        <v>135</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2">
+        <v>89</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>180</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>180</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="2">
+        <v>93</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>270</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2">
+        <v>85</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="2">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2">
+        <v>180</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>